--- a/excel/vgl01sp.xlsx
+++ b/excel/vgl01sp.xlsx
@@ -440,12 +440,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1523.757010181227</v>
+        <v>1448.47978676863</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.4201946381054372</v>
+        <v>16.89629427551973</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.988102565844321</v>
+        <v>4.305128865648991</v>
       </c>
     </row>
     <row r="9">
@@ -510,12 +510,12 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-12.01734313340061</v>
+        <v>0.6961779534590491</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7.046344899645262</v>
+        <v>107.0559660028193</v>
       </c>
     </row>
     <row r="18">
@@ -530,7 +530,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20.87539661162418</v>
+        <v>8.878558792617749</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-63.02810797171868</v>
+        <v>-21.37280094204536</v>
       </c>
     </row>
     <row r="35">
@@ -685,7 +685,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-12.92441638993307</v>
+        <v>4.593107807500779</v>
       </c>
     </row>
   </sheetData>
